--- a/VT_ModelPL_SUPPLY.xlsx
+++ b/VT_ModelPL_SUPPLY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Pracedyplomowe796/Shared Documents/General/2025_2026/Alicja Ossera/H2-V5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{CA042CEE-0338-40DE-8B39-9BB3FF676921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC1D4B5-39A4-45DE-A24A-1E3EE9BEF869}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B07FBA6-3C5B-43AA-83AB-726DFEBDFBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" tabRatio="261" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
     <numFmt numFmtId="186" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="188" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="191" formatCode="0.000"/>
+    <numFmt numFmtId="189" formatCode="0.000"/>
   </numFmts>
   <fonts count="117">
     <font>
@@ -5795,7 +5795,7 @@
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5936,36 +5936,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="55" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="55" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="55" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="55" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="55" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="55" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="55" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="55" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5974,19 +5964,25 @@
     <xf numFmtId="1" fontId="6" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="2" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="2" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="2" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="2" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2522">
     <cellStyle name="20 % - Akzent1 2" xfId="337" xr:uid="{AEF1F3A2-CD7E-4776-A7F8-38D4C13273E7}"/>
@@ -9122,182 +9118,176 @@
       <c r="B9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1">
       <c r="B10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1">
       <c r="B11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1">
       <c r="B12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="42"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="40"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1">
       <c r="B14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9" ht="18.75" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="40"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1">
       <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="87"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="24" spans="2:9">
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:9" ht="13" thickBot="1">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="99"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="20" t="s">
@@ -9503,201 +9493,201 @@
       <c r="B9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="88"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="2:14" ht="13" thickBot="1">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="87"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="22" t="s">
@@ -9900,7 +9890,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -10157,12 +10147,12 @@
         <f>SEC_Comm!C8</f>
         <v>PRI_HC</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="94">
         <f>Q8*1000</f>
         <v>38.361266294227185</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100">
+      <c r="F8" s="94"/>
+      <c r="G8" s="94">
         <f>(K8*1000*M8)*10^-9</f>
         <v>945.01537092000001</v>
       </c>
@@ -10195,20 +10185,20 @@
         <f>SEC_Processes!D9</f>
         <v>MIN_LIG</v>
       </c>
-      <c r="C9" s="97" t="str">
+      <c r="C9" s="91" t="str">
         <f>SEC_Processes!E9</f>
         <v>Lignite Domestic Supply</v>
       </c>
-      <c r="D9" s="97" t="str">
+      <c r="D9" s="91" t="str">
         <f>SEC_Comm!C9</f>
         <v>PRI_BC</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="95">
         <f>Q9*1000</f>
         <v>6.1425970873786397</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101">
+      <c r="F9" s="95"/>
+      <c r="G9" s="95">
         <f>(K9*1000*M9)*10^-9</f>
         <v>358.11040000000003</v>
       </c>
@@ -10242,20 +10232,20 @@
         <f>SEC_Processes!D10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="C10" s="96" t="str">
+      <c r="C10" s="90" t="str">
         <f>SEC_Processes!E10</f>
         <v>Natural Gas Domestic Supply</v>
       </c>
-      <c r="D10" s="96" t="str">
+      <c r="D10" s="90" t="str">
         <f>SEC_Comm!C10</f>
         <v>PRI_GAS_NAT</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="96">
         <f>28.7719437401575</f>
         <v>28.7719437401575</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102">
+      <c r="F10" s="96"/>
+      <c r="G10" s="96">
         <f>(L10*N10)*10^-9</f>
         <v>165.25120000000001</v>
       </c>
@@ -10280,20 +10270,20 @@
         <f>SEC_Processes!D11</f>
         <v>MIN_BIOM</v>
       </c>
-      <c r="C11" s="97" t="str">
+      <c r="C11" s="91" t="str">
         <f>SEC_Processes!E11</f>
         <v>Biomass Domestic Supply</v>
       </c>
-      <c r="D11" s="97" t="str">
+      <c r="D11" s="91" t="str">
         <f>SEC_Comm!C11</f>
         <v>PRI_BIOM</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="95">
         <f>7.33*4.5437</f>
         <v>33.305320999999999</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101">
+      <c r="F11" s="95"/>
+      <c r="G11" s="95">
         <f>450</f>
         <v>450</v>
       </c>
@@ -10310,17 +10300,19 @@
         <f>SEC_Processes!D12</f>
         <v>MIN_WIND_ON</v>
       </c>
-      <c r="C12" s="96" t="str">
+      <c r="C12" s="90" t="str">
         <f>SEC_Processes!E12</f>
         <v xml:space="preserve">Wind Onshore </v>
       </c>
-      <c r="D12" s="96" t="str">
+      <c r="D12" s="90" t="str">
         <f>SEC_Comm!C12</f>
         <v>PRI_WIND_ON</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="E12" s="96">
+        <v>0</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="59"/>
       <c r="J12" s="71" t="s">
         <v>156</v>
@@ -10337,17 +10329,19 @@
         <f>SEC_Processes!D13</f>
         <v>MIN_HYDRO</v>
       </c>
-      <c r="C13" s="97" t="str">
+      <c r="C13" s="91" t="str">
         <f>SEC_Processes!E13</f>
         <v>Hydro</v>
       </c>
-      <c r="D13" s="97" t="str">
+      <c r="D13" s="91" t="str">
         <f>SEC_Comm!C13</f>
         <v>PRI_HYD</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
+      <c r="E13" s="95">
+        <v>0</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:23" ht="11.5" customHeight="1">
@@ -10355,17 +10349,19 @@
         <f>SEC_Processes!D14</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C14" s="96" t="str">
+      <c r="C14" s="90" t="str">
         <f>SEC_Processes!E14</f>
         <v>Solar</v>
       </c>
-      <c r="D14" s="96" t="str">
+      <c r="D14" s="90" t="str">
         <f>SEC_Comm!C14</f>
         <v>PRI_SOL</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
+      <c r="E14" s="96">
+        <v>0</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="59"/>
       <c r="J14" s="24"/>
       <c r="K14" s="63" t="s">
@@ -10385,17 +10381,19 @@
         <f>SEC_Processes!D15</f>
         <v>MIN_OTH</v>
       </c>
-      <c r="C15" s="97" t="str">
+      <c r="C15" s="91" t="str">
         <f>SEC_Processes!E15</f>
         <v>Others</v>
       </c>
-      <c r="D15" s="97" t="str">
+      <c r="D15" s="91" t="str">
         <f>SEC_Comm!C15</f>
         <v>PRI_OTH</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
+      <c r="E15" s="95">
+        <v>0</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="61"/>
       <c r="J15" s="72" t="s">
         <v>158</v>
@@ -10419,20 +10417,20 @@
         <f>SEC_Processes!D16</f>
         <v>IMP_URAN</v>
       </c>
-      <c r="C16" s="96" t="str">
+      <c r="C16" s="90" t="str">
         <f>SEC_Processes!E16</f>
         <v>Uran Imports</v>
       </c>
-      <c r="D16" s="96" t="str">
+      <c r="D16" s="90" t="str">
         <f>SEC_Comm!C16</f>
         <v>PRI_URAN</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="96">
         <v>7.7638578346456697</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="90"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="85"/>
       <c r="J16" s="73"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -10441,24 +10439,24 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" ht="13" thickBot="1">
-      <c r="B17" s="98" t="str">
+      <c r="B17" s="92" t="str">
         <f>SEC_Processes!D17</f>
         <v>IMP_DSL</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="93" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_DSL</v>
       </c>
-      <c r="E17" s="103">
+      <c r="E17" s="97">
         <f>M15*1000</f>
         <v>172.77777777777777</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="87"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="83"/>
       <c r="J17" s="73"/>
       <c r="K17" s="73"/>
       <c r="L17" s="73"/>
@@ -10497,6 +10495,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -10739,27 +10757,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB1F13CE-B0BE-4E90-B068-994A1F502961}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10776,29 +10799,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ModelPL_SUPPLY.xlsx
+++ b/VT_ModelPL_SUPPLY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita — popr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B07FBA6-3C5B-43AA-83AB-726DFEBDFBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A04DA-3113-4DE6-B6F1-908937A23E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,9 +1366,6 @@
     <t>Output Commodity</t>
   </si>
   <si>
-    <t>Extraction Cost [PLN/GJ]</t>
-  </si>
-  <si>
     <t>Annual Extraction Bound [PJ/a]</t>
   </si>
   <si>
@@ -1445,6 +1442,9 @@
   </si>
   <si>
     <t>Diesel Imports</t>
+  </si>
+  <si>
+    <t>Extraction Cost [mln PLN/PJ]</t>
   </si>
 </sst>
 </file>
@@ -9266,7 +9266,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>27</v>
@@ -9672,7 +9672,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="89" t="s">
         <v>27</v>
@@ -9889,8 +9889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -10058,14 +10058,14 @@
         <v>137</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -10086,46 +10086,46 @@
     <row r="7" spans="1:23" ht="47.25" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>145</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="65"/>
       <c r="K7" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="M7" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="N7" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="O7" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="P7" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="67" t="s">
         <v>150</v>
-      </c>
-      <c r="P7" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q7" s="67" t="s">
-        <v>151</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="H8" s="57"/>
       <c r="J8" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K8" s="64">
         <v>21.48</v>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="H9" s="61"/>
       <c r="J9" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K9" s="63">
         <v>8.24</v>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="H10" s="59"/>
       <c r="J10" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="63"/>
       <c r="L10" s="70">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="H11" s="61"/>
       <c r="K11" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
@@ -10315,7 +10315,7 @@
       <c r="G12" s="96"/>
       <c r="H12" s="59"/>
       <c r="J12" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="63">
         <v>3456</v>
@@ -10365,13 +10365,13 @@
       <c r="H14" s="59"/>
       <c r="J14" s="24"/>
       <c r="K14" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="L14" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -10396,7 +10396,7 @@
       <c r="G15" s="95"/>
       <c r="H15" s="61"/>
       <c r="J15" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="73">
         <v>36</v>
@@ -10444,7 +10444,7 @@
         <v>IMP_DSL</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="93" t="str">
         <f>SEC_Comm!C17</f>
@@ -10495,26 +10495,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -10757,32 +10737,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB1F13CE-B0BE-4E90-B068-994A1F502961}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10799,4 +10774,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ModelPL_SUPPLY.xlsx
+++ b/VT_ModelPL_SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita — popr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-V6_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A04DA-3113-4DE6-B6F1-908937A23E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B6DF5-7DAF-4016-BA77-0A305937ADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -797,151 +797,160 @@
     <author>tc={D4FAB75F-6F84-4CA1-A075-EF00C33005E9}</author>
     <author>tc={0474E7C7-1B26-474F-9622-2BD136CDE7E9}</author>
     <author>tc={A09F502C-CDC4-4B6C-92E2-2CD872E5E3BD}</author>
+    <author>tc={5A97C997-A098-495A-A651-BAA2E0DA6FCA}</author>
     <author>tc={516392F4-0C77-4D0D-9B33-019C52D407A7}</author>
     <author>tc={4A6B8365-E407-4760-AFC3-33C17EEE8E7A}</author>
     <author>tc={C198AD2D-41D3-4002-A121-F3EEF76D416B}</author>
   </authors>
   <commentList>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     KOBIZE</t>
       </text>
     </comment>
-    <comment ref="M8" authorId="1" shapeId="0" xr:uid="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
+    <comment ref="N8" authorId="1" shapeId="0" xr:uid="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Dynamiczny raport górnictwa wk</t>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
+    <comment ref="P8" authorId="2" shapeId="0" xr:uid="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Forum energii
-Odpowiedź:
+Reply:
     2024</t>
       </text>
     </comment>
     <comment ref="E9" authorId="3" shapeId="0" xr:uid="{AC399B7F-CA59-4F4B-A772-9F163718F16E}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Dobre źródło ale z 2009! Link po prawej w tabeli</t>
       </text>
     </comment>
-    <comment ref="K9" authorId="4" shapeId="0" xr:uid="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
+    <comment ref="L9" authorId="4" shapeId="0" xr:uid="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     KOBIZE</t>
       </text>
     </comment>
-    <comment ref="M9" authorId="5" shapeId="0" xr:uid="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
+    <comment ref="N9" authorId="5" shapeId="0" xr:uid="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Pgi.gov.pl</t>
       </text>
     </comment>
-    <comment ref="O9" authorId="6" shapeId="0" xr:uid="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
+    <comment ref="P9" authorId="6" shapeId="0" xr:uid="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     https://se.min-pan.krakow.pl/pelne_teksty23/k23z_pe/k23_czopek_trzaskus_z.pdf
-Odpowiedź:
+Reply:
     2009...</t>
       </text>
     </comment>
     <comment ref="E10" authorId="7" shapeId="0" xr:uid="{BFD9A748-F3AC-4746-B568-2649BB3D7DAE}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Tak jak ENTSO 2030 bo brak jawnych danych</t>
       </text>
     </comment>
-    <comment ref="L10" authorId="8" shapeId="0" xr:uid="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
+    <comment ref="M10" authorId="8" shapeId="0" xr:uid="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     KOBIZE</t>
       </text>
     </comment>
-    <comment ref="N10" authorId="9" shapeId="0" xr:uid="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
+    <comment ref="O10" authorId="9" shapeId="0" xr:uid="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     pgi.gov.pl</t>
       </text>
     </comment>
     <comment ref="E11" authorId="10" shapeId="0" xr:uid="{D6AC3D91-27B7-4254-A5A4-1E26D77A7AC0}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     magazynbiomasa
-Odpowiedź:
+Reply:
     Cena giełda baltpool, kurs 2023</t>
       </text>
     </comment>
-    <comment ref="G11" authorId="11" shapeId="0" xr:uid="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
+    <comment ref="F11" authorId="11" shapeId="0" xr:uid="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Magazyn biomasa.pl</t>
       </text>
     </comment>
-    <comment ref="K12" authorId="12" shapeId="0" xr:uid="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
+    <comment ref="L12" authorId="12" shapeId="0" xr:uid="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
       <text>
-        <t xml:space="preserve">[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     https://web.archive.org/web/20081211234615/http://petroleum.berkeley.edu/patzek/ce24/Spring2003/heatvalues.htm
 </t>
       </text>
     </comment>
-    <comment ref="K14" authorId="13" shapeId="0" xr:uid="{A09F502C-CDC4-4B6C-92E2-2CD872E5E3BD}">
+    <comment ref="L14" authorId="13" shapeId="0" xr:uid="{A09F502C-CDC4-4B6C-92E2-2CD872E5E3BD}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     https://isap.sejm.gov.pl/isap.nsf/download.xsp/WDU20200001278/O/D20201278.pdf</t>
       </text>
     </comment>
-    <comment ref="E16" authorId="14" shapeId="0" xr:uid="{516392F4-0C77-4D0D-9B33-019C52D407A7}">
+    <comment ref="M14" authorId="14" shapeId="0" xr:uid="{5A97C997-A098-495A-A651-BAA2E0DA6FCA}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    cena hurt orlen 29.10.25, akcyza podatki.gov.pl, opłata paliwowa biznes.gov</t>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="15" shapeId="0" xr:uid="{516392F4-0C77-4D0D-9B33-019C52D407A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Cena z ENTSO z TYNP, przyjęta jak dla 2030</t>
       </text>
     </comment>
-    <comment ref="G16" authorId="15" shapeId="0" xr:uid="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
+    <comment ref="H16" authorId="16" shapeId="0" xr:uid="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Nie ograniczaliśmy w modelu dla Shella… brak danych zupełnie na ten temat...</t>
       </text>
     </comment>
-    <comment ref="E17" authorId="16" shapeId="0" xr:uid="{C198AD2D-41D3-4002-A121-F3EEF76D416B}">
+    <comment ref="E17" authorId="17" shapeId="0" xr:uid="{C198AD2D-41D3-4002-A121-F3EEF76D416B}">
       <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Import, źr po prawej</t>
       </text>
     </comment>
@@ -1087,6 +1096,9 @@
     <t>TRA_DSL</t>
   </si>
   <si>
+    <t>Diesel Fuel</t>
+  </si>
+  <si>
     <t>Available Commodity Sets</t>
   </si>
   <si>
@@ -1255,6 +1267,9 @@
     <t>IMP_DSL</t>
   </si>
   <si>
+    <t>Diesel Imports</t>
+  </si>
+  <si>
     <t>Available Process Sets</t>
   </si>
   <si>
@@ -1366,6 +1381,9 @@
     <t>Output Commodity</t>
   </si>
   <si>
+    <t>Extraction Cost [PLN/GJ]</t>
+  </si>
+  <si>
     <t>Annual Extraction Bound [PJ/a]</t>
   </si>
   <si>
@@ -1402,6 +1420,9 @@
     <t>koszt wydobycia PLN/t</t>
   </si>
   <si>
+    <t>koszt wydobycia PLN/kg</t>
+  </si>
+  <si>
     <t>koszt wydobycia PLN/MJ</t>
   </si>
   <si>
@@ -1420,31 +1441,19 @@
     <t>URAN</t>
   </si>
   <si>
+    <t>Wartość energetyczna (MJ/l)</t>
+  </si>
+  <si>
+    <t>Cena import = hurt + akcyza + opł. Paliwowa (PLN/m3)</t>
+  </si>
+  <si>
+    <t>koszt (PLN/MJ)</t>
+  </si>
+  <si>
+    <t>DIESEL</t>
+  </si>
+  <si>
     <t>Import of diesel fuel</t>
-  </si>
-  <si>
-    <t>DIESEL</t>
-  </si>
-  <si>
-    <t>Wartość energetyczna (MJ/l)</t>
-  </si>
-  <si>
-    <t>koszt (PLN/MJ)</t>
-  </si>
-  <si>
-    <t>Cena import = hurt + akcyza + opł. Paliwowa (PLN/l)</t>
-  </si>
-  <si>
-    <t>koszt wydobycia PLN/kg</t>
-  </si>
-  <si>
-    <t>Diesel Fuel</t>
-  </si>
-  <si>
-    <t>Diesel Imports</t>
-  </si>
-  <si>
-    <t>Extraction Cost [mln PLN/PJ]</t>
   </si>
 </sst>
 </file>
@@ -5795,7 +5804,7 @@
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5982,6 +5991,9 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2522">
@@ -7260,6 +7272,7 @@
     <cellStyle name="Neutralne 9 3" xfId="1335" xr:uid="{9A2911CC-77F9-427E-AF76-7ACDA19AAD34}"/>
     <cellStyle name="Neutralne 9_COM_BND" xfId="1336" xr:uid="{40F3AEDA-481E-4F62-8F5F-8592128FE901}"/>
     <cellStyle name="no dec" xfId="1337" xr:uid="{AA18D127-489D-45ED-B3E3-9B7D25E2E76B}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="1338" xr:uid="{579CAC6F-5CDD-4B7A-8122-9997D30863D9}"/>
     <cellStyle name="Normal - Style1 2 2 3" xfId="2516" xr:uid="{E122DE18-B807-496E-BD44-BBB63A047204}"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
@@ -7340,7 +7353,6 @@
     <cellStyle name="Normal GHG-Shade 2" xfId="1408" xr:uid="{DC2D7900-93CD-4661-8FC9-7D47BE5655E0}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normale_B2020" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="1409" xr:uid="{BD98270D-00D2-46E2-97B7-D89A9FD2BE17}"/>
     <cellStyle name="Normalny 10 10" xfId="1410" xr:uid="{5E5F0907-E0B2-482F-B68D-BA01781F945C}"/>
     <cellStyle name="Normalny 10 10 2" xfId="2521" xr:uid="{173CD0C3-EA74-4B75-9DA9-82D9B8CDBC70}"/>
@@ -8881,28 +8893,28 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K8" dT="2025-06-30T18:02:30.81" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
+  <threadedComment ref="L8" dT="2025-06-30T18:02:30.81" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
     <text>KOBIZE</text>
   </threadedComment>
-  <threadedComment ref="M8" dT="2025-06-30T18:18:16.14" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
+  <threadedComment ref="N8" dT="2025-06-30T18:18:16.14" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
     <text>Dynamiczny raport górnictwa wk</text>
   </threadedComment>
-  <threadedComment ref="O8" dT="2025-06-30T18:47:37.41" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
+  <threadedComment ref="P8" dT="2025-06-30T18:47:37.41" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
     <text>Forum energii</text>
   </threadedComment>
-  <threadedComment ref="O8" dT="2025-07-01T16:28:29.24" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2730D4D6-8EC1-474B-AD53-6E03EA6D1E1B}" parentId="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
+  <threadedComment ref="P8" dT="2025-07-01T16:28:29.24" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2730D4D6-8EC1-474B-AD53-6E03EA6D1E1B}" parentId="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
     <text>2024</text>
   </threadedComment>
   <threadedComment ref="E9" dT="2025-07-01T16:37:23.37" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{AC399B7F-CA59-4F4B-A772-9F163718F16E}">
     <text>Dobre źródło ale z 2009! Link po prawej w tabeli</text>
   </threadedComment>
-  <threadedComment ref="K9" dT="2025-06-30T18:27:42.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
+  <threadedComment ref="L9" dT="2025-06-30T18:27:42.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
     <text>KOBIZE</text>
   </threadedComment>
-  <threadedComment ref="M9" dT="2025-06-30T18:18:26.97" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
+  <threadedComment ref="N9" dT="2025-06-30T18:18:26.97" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
     <text>Pgi.gov.pl</text>
   </threadedComment>
-  <threadedComment ref="O9" dT="2025-07-01T16:27:58.61" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
+  <threadedComment ref="P9" dT="2025-07-01T16:27:58.61" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
     <text>https://se.min-pan.krakow.pl/pelne_teksty23/k23z_pe/k23_czopek_trzaskus_z.pdf</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -8911,16 +8923,16 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="O9" dT="2025-07-01T16:28:37.99" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{C167D862-F31F-4B89-94D8-D8A7D4AE61BC}" parentId="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
+  <threadedComment ref="P9" dT="2025-07-01T16:28:37.99" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{C167D862-F31F-4B89-94D8-D8A7D4AE61BC}" parentId="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
     <text>2009...</text>
   </threadedComment>
   <threadedComment ref="E10" dT="2025-06-30T18:36:36.56" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{BFD9A748-F3AC-4746-B568-2649BB3D7DAE}">
     <text>Tak jak ENTSO 2030 bo brak jawnych danych</text>
   </threadedComment>
-  <threadedComment ref="L10" dT="2025-06-30T18:27:54.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
+  <threadedComment ref="M10" dT="2025-06-30T18:27:54.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
     <text>KOBIZE</text>
   </threadedComment>
-  <threadedComment ref="N10" dT="2025-06-30T18:28:16.66" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
+  <threadedComment ref="O10" dT="2025-06-30T18:28:16.66" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
     <text>pgi.gov.pl</text>
   </threadedComment>
   <threadedComment ref="E11" dT="2025-06-30T18:31:04.74" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{D6AC3D91-27B7-4254-A5A4-1E26D77A7AC0}">
@@ -8929,10 +8941,10 @@
   <threadedComment ref="E11" dT="2025-09-01T19:36:30.21" personId="{82DD2F04-404F-4097-A7E6-8AF0F62BACD7}" id="{ECE703C9-2A36-4FF2-861B-62AFADAFDD7F}" parentId="{D6AC3D91-27B7-4254-A5A4-1E26D77A7AC0}">
     <text>Cena giełda baltpool, kurs 2023</text>
   </threadedComment>
-  <threadedComment ref="G11" dT="2025-06-30T18:12:24.35" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
+  <threadedComment ref="F11" dT="2025-06-30T18:12:24.35" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
     <text>Magazyn biomasa.pl</text>
   </threadedComment>
-  <threadedComment ref="K12" dT="2025-07-01T16:57:20.07" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
+  <threadedComment ref="L12" dT="2025-07-01T16:57:20.07" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
     <text xml:space="preserve">https://web.archive.org/web/20081211234615/http://petroleum.berkeley.edu/patzek/ce24/Spring2003/heatvalues.htm
 </text>
     <extLst>
@@ -8942,7 +8954,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="K14" dT="2025-09-01T19:13:44.62" personId="{82DD2F04-404F-4097-A7E6-8AF0F62BACD7}" id="{A09F502C-CDC4-4B6C-92E2-2CD872E5E3BD}">
+  <threadedComment ref="L14" dT="2025-09-01T19:13:44.62" personId="{82DD2F04-404F-4097-A7E6-8AF0F62BACD7}" id="{A09F502C-CDC4-4B6C-92E2-2CD872E5E3BD}">
     <text>https://isap.sejm.gov.pl/isap.nsf/download.xsp/WDU20200001278/O/D20201278.pdf</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -8951,10 +8963,13 @@
       </x:ext>
     </extLst>
   </threadedComment>
+  <threadedComment ref="M14" dT="2025-10-29T12:22:45.76" personId="{82DD2F04-404F-4097-A7E6-8AF0F62BACD7}" id="{5A97C997-A098-495A-A651-BAA2E0DA6FCA}">
+    <text>cena hurt orlen 29.10.25, akcyza podatki.gov.pl, opłata paliwowa biznes.gov</text>
+  </threadedComment>
   <threadedComment ref="E16" dT="2025-07-01T20:08:44.75" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{516392F4-0C77-4D0D-9B33-019C52D407A7}">
     <text>Cena z ENTSO z TYNP, przyjęta jak dla 2030</text>
   </threadedComment>
-  <threadedComment ref="G16" dT="2025-07-01T17:12:42.15" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
+  <threadedComment ref="H16" dT="2025-07-01T17:12:42.15" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
     <text>Nie ograniczaliśmy w modelu dla Shella… brak danych zupełnie na ten temat...</text>
   </threadedComment>
   <threadedComment ref="E17" dT="2025-09-01T19:43:18.09" personId="{82DD2F04-404F-4097-A7E6-8AF0F62BACD7}" id="{C198AD2D-41D3-4002-A121-F3EEF76D416B}">
@@ -8972,21 +8987,21 @@
       <selection activeCell="B8" sqref="B8:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.5">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -9018,7 +9033,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9" ht="13">
+    <row r="5" spans="2:9">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -9044,7 +9059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="37.5">
+    <row r="6" spans="2:9" ht="38.25">
       <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
@@ -9070,7 +9085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="50.5" thickBot="1">
+    <row r="7" spans="2:9" ht="51.75" thickBot="1">
       <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
@@ -9266,7 +9281,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>27</v>
@@ -9283,9 +9298,9 @@
     <row r="24" spans="2:9">
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="2:9" ht="13" thickBot="1">
+    <row r="25" spans="2:9" ht="13.5" thickBot="1">
       <c r="B25" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="99"/>
     </row>
@@ -9294,39 +9309,39 @@
         <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="13" thickBot="1">
+    <row r="30" spans="2:9" ht="13.5" thickBot="1">
       <c r="B30" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9349,24 +9364,24 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9374,7 +9389,7 @@
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
@@ -9387,80 +9402,80 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63" thickBot="1">
+    <row r="7" spans="1:10" ht="64.5" thickBot="1">
       <c r="B7" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>22</v>
@@ -9470,16 +9485,16 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>27</v>
@@ -9491,16 +9506,16 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>27</v>
@@ -9512,16 +9527,16 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>27</v>
@@ -9533,16 +9548,16 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>27</v>
@@ -9554,36 +9569,36 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>37</v>
@@ -9598,36 +9613,36 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I14" s="87"/>
       <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>41</v>
@@ -9642,16 +9657,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>27</v>
@@ -9661,18 +9676,18 @@
       <c r="I16" s="84"/>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="2:14" ht="13" thickBot="1">
+    <row r="17" spans="2:14" ht="13.5" thickBot="1">
       <c r="B17" s="88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="F17" s="89" t="s">
         <v>27</v>
@@ -9684,42 +9699,42 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="100" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" s="22"/>
       <c r="F21" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D22" s="21"/>
       <c r="F22" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J22" s="34" t="s">
         <v>27</v>
@@ -9731,23 +9746,23 @@
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23" s="22"/>
       <c r="F23" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>27</v>
@@ -9759,23 +9774,23 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D24" s="21"/>
       <c r="F24" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>27</v>
@@ -9787,23 +9802,23 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D25" s="22"/>
       <c r="F25" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>27</v>
@@ -9812,64 +9827,64 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J26" s="34" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="13" thickBot="1">
+    <row r="29" spans="2:14" ht="13.5" thickBot="1">
       <c r="B29" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D29" s="23"/>
     </row>
@@ -9887,28 +9902,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="8" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
-    <col min="11" max="11" width="24.7265625" customWidth="1"/>
-    <col min="12" max="13" width="15.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -9931,17 +9946,18 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:23" ht="17.5">
+    <row r="2" spans="1:24" ht="18">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -9958,8 +9974,9 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
@@ -9968,9 +9985,9 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -9983,17 +10000,18 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="D4" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -10008,29 +10026,29 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="F5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="I5" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -10042,36 +10060,37 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="5"/>
+      <c r="U5" s="13"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:23" ht="47.25" customHeight="1">
+    <row r="6" spans="1:24" ht="47.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
-        <v>138</v>
-      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10082,59 +10101,61 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="47.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:24" ht="47.25" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
-        <v>143</v>
-      </c>
+      <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66" t="s">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>149</v>
       </c>
       <c r="N7" s="67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="R7" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>154</v>
+      </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="B8" s="55" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_HC</v>
@@ -10148,39 +10169,40 @@
         <v>PRI_HC</v>
       </c>
       <c r="E8" s="94">
-        <f>Q8*1000</f>
+        <f>R8*1000</f>
         <v>38.361266294227185</v>
       </c>
       <c r="F8" s="94"/>
-      <c r="G8" s="94">
-        <f>(K8*1000*M8)*10^-9</f>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94">
+        <f>(L8*1000*N8)*10^-9</f>
         <v>945.01537092000001</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="J8" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="64">
+      <c r="I8" s="57"/>
+      <c r="K8" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="64">
         <v>21.48</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="63">
+      <c r="M8" s="64"/>
+      <c r="N8" s="63">
         <v>43995129</v>
       </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64">
+      <c r="O8" s="63"/>
+      <c r="P8" s="64">
         <v>824</v>
       </c>
-      <c r="P8">
-        <f>O8/1000</f>
+      <c r="Q8">
+        <f>P8/1000</f>
         <v>0.82399999999999995</v>
       </c>
-      <c r="Q8" s="64">
-        <f>P8/K8</f>
+      <c r="R8" s="64">
+        <f>Q8/L8</f>
         <v>3.8361266294227182E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="B9" s="60" t="str">
         <f>SEC_Processes!D9</f>
         <v>MIN_LIG</v>
@@ -10194,40 +10216,41 @@
         <v>PRI_BC</v>
       </c>
       <c r="E9" s="95">
-        <f>Q9*1000</f>
+        <f>R9*1000</f>
         <v>6.1425970873786397</v>
       </c>
       <c r="F9" s="95"/>
-      <c r="G9" s="95">
-        <f>(K9*1000*M9)*10^-9</f>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95">
+        <f>(L9*1000*N9)*10^-9</f>
         <v>358.11040000000003</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="J9" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="63">
+      <c r="I9" s="61"/>
+      <c r="K9" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="63">
         <v>8.24</v>
       </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63">
         <v>43460000</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="69">
+      <c r="O9" s="63"/>
+      <c r="P9" s="69">
         <f>AVERAGE(49.33,51.9)</f>
         <v>50.614999999999995</v>
       </c>
-      <c r="P9">
-        <f>O9/1000</f>
+      <c r="Q9">
+        <f>P9/1000</f>
         <v>5.0614999999999993E-2</v>
       </c>
-      <c r="Q9" s="64">
-        <f>P9/K9</f>
+      <c r="R9" s="64">
+        <f>Q9/L9</f>
         <v>6.1425970873786396E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="B10" s="58" t="str">
         <f>SEC_Processes!D10</f>
         <v>MIN_NAT_GAS</v>
@@ -10245,27 +10268,28 @@
         <v>28.7719437401575</v>
       </c>
       <c r="F10" s="96"/>
-      <c r="G10" s="96">
-        <f>(L10*N10)*10^-9</f>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96">
+        <f>(M10*O10)*10^-9</f>
         <v>165.25120000000001</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="J10" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="63"/>
-      <c r="L10" s="70">
+      <c r="I10" s="59"/>
+      <c r="K10" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="63"/>
+      <c r="M10" s="70">
         <v>36.56</v>
       </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63">
+      <c r="N10" s="63"/>
+      <c r="O10" s="63">
         <f>4.52*10^9</f>
         <v>4520000000</v>
       </c>
-      <c r="O10" s="64"/>
-      <c r="Q10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="R10" s="64"/>
     </row>
-    <row r="11" spans="1:23" ht="27.65" customHeight="1">
+    <row r="11" spans="1:24" ht="27.6" customHeight="1">
       <c r="B11" s="60" t="str">
         <f>SEC_Processes!D11</f>
         <v>MIN_BIOM</v>
@@ -10282,20 +10306,20 @@
         <f>7.33*4.5437</f>
         <v>33.305320999999999</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95">
+      <c r="F11" s="95">
         <f>450</f>
         <v>450</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="K11" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="62"/>
+      <c r="G11" s="95"/>
+      <c r="I11" s="61"/>
+      <c r="L11" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="B12" s="58" t="str">
         <f>SEC_Processes!D12</f>
         <v>MIN_WIND_ON</v>
@@ -10313,18 +10337,19 @@
       </c>
       <c r="F12" s="96"/>
       <c r="G12" s="96"/>
-      <c r="H12" s="59"/>
-      <c r="J12" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" s="63">
+      <c r="H12" s="96"/>
+      <c r="I12" s="59"/>
+      <c r="K12" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="63">
         <v>3456</v>
       </c>
-      <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="B13" s="60" t="str">
         <f>SEC_Processes!D13</f>
         <v>MIN_HYDRO</v>
@@ -10342,9 +10367,10 @@
       </c>
       <c r="F13" s="95"/>
       <c r="G13" s="95"/>
-      <c r="H13" s="61"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="61"/>
     </row>
-    <row r="14" spans="1:23" ht="11.5" customHeight="1">
+    <row r="14" spans="1:24" ht="11.45" customHeight="1">
       <c r="B14" s="58" t="str">
         <f>SEC_Processes!D14</f>
         <v>MIN_SOLAR</v>
@@ -10362,21 +10388,22 @@
       </c>
       <c r="F14" s="96"/>
       <c r="G14" s="96"/>
-      <c r="H14" s="59"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="63" t="s">
-        <v>158</v>
-      </c>
+      <c r="H14" s="96"/>
+      <c r="I14" s="59"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" s="24"/>
+      <c r="M14" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="B15" s="60" t="str">
         <f>SEC_Processes!D15</f>
         <v>MIN_OTH</v>
@@ -10394,25 +10421,26 @@
       </c>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
-      <c r="H15" s="61"/>
-      <c r="J15" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="73">
+      <c r="H15" s="95"/>
+      <c r="I15" s="61"/>
+      <c r="K15" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="73">
         <v>36</v>
       </c>
-      <c r="L15">
-        <f>(4624+1160+436)/1000</f>
-        <v>6.22</v>
-      </c>
-      <c r="M15" s="73">
-        <f>L15/K15</f>
-        <v>0.17277777777777778</v>
-      </c>
-      <c r="N15" s="24"/>
+      <c r="M15">
+        <f>(4774+1160+436)/1000</f>
+        <v>6.37</v>
+      </c>
+      <c r="N15" s="73">
+        <f>M15/L15</f>
+        <v>0.17694444444444446</v>
+      </c>
       <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="B16" s="58" t="str">
         <f>SEC_Processes!D16</f>
         <v>IMP_URAN</v>
@@ -10430,60 +10458,62 @@
       </c>
       <c r="F16" s="96"/>
       <c r="G16" s="96"/>
-      <c r="H16" s="85"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="24"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="85"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="73"/>
       <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:15" ht="13" thickBot="1">
+    <row r="17" spans="2:16" ht="13.5" thickBot="1">
       <c r="B17" s="92" t="str">
         <f>SEC_Processes!D17</f>
         <v>IMP_DSL</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D17" s="93" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_DSL</v>
       </c>
       <c r="E17" s="97">
-        <f>M15*1000</f>
-        <v>172.77777777777777</v>
-      </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="83"/>
-      <c r="J17" s="73"/>
+        <f>N15*1000</f>
+        <v>176.94444444444446</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="83"/>
       <c r="K17" s="73"/>
       <c r="L17" s="73"/>
       <c r="M17" s="73"/>
-      <c r="N17" s="24"/>
+      <c r="N17" s="73"/>
       <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:15">
-      <c r="J18" s="24"/>
+    <row r="18" spans="2:16">
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:15">
-      <c r="L19" s="24"/>
+    <row r="19" spans="2:16">
+      <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="2:15">
-      <c r="L20" s="24"/>
+    <row r="20" spans="2:16">
+      <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="2:15">
-      <c r="L21" s="24"/>
+    <row r="21" spans="2:16">
+      <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="2:15">
-      <c r="K22" s="24"/>
-      <c r="M22" s="24"/>
+    <row r="22" spans="2:16">
+      <c r="L22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
@@ -10495,8 +10525,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -10552,7 +10602,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -10611,7 +10661,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -10630,7 +10680,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -10647,8 +10697,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -10737,41 +10787,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB1F13CE-B0BE-4E90-B068-994A1F502961}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10785,18 +10807,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF101330-C968-40B5-8BD0-7CAA7445188C}"/>
 </file>
--- a/VT_ModelPL_SUPPLY.xlsx
+++ b/VT_ModelPL_SUPPLY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-V6_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B6DF5-7DAF-4016-BA77-0A305937ADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7E1EF-139D-47E9-B789-6A725D403F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -805,152 +805,152 @@
   <commentList>
     <comment ref="L8" authorId="0" shapeId="0" xr:uid="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     KOBIZE</t>
       </text>
     </comment>
     <comment ref="N8" authorId="1" shapeId="0" xr:uid="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Dynamiczny raport górnictwa wk</t>
       </text>
     </comment>
     <comment ref="P8" authorId="2" shapeId="0" xr:uid="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Forum energii
-Reply:
+Odpowiedź:
     2024</t>
       </text>
     </comment>
     <comment ref="E9" authorId="3" shapeId="0" xr:uid="{AC399B7F-CA59-4F4B-A772-9F163718F16E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Dobre źródło ale z 2009! Link po prawej w tabeli</t>
       </text>
     </comment>
     <comment ref="L9" authorId="4" shapeId="0" xr:uid="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     KOBIZE</t>
       </text>
     </comment>
     <comment ref="N9" authorId="5" shapeId="0" xr:uid="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Pgi.gov.pl</t>
       </text>
     </comment>
     <comment ref="P9" authorId="6" shapeId="0" xr:uid="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     https://se.min-pan.krakow.pl/pelne_teksty23/k23z_pe/k23_czopek_trzaskus_z.pdf
-Reply:
+Odpowiedź:
     2009...</t>
       </text>
     </comment>
     <comment ref="E10" authorId="7" shapeId="0" xr:uid="{BFD9A748-F3AC-4746-B568-2649BB3D7DAE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Tak jak ENTSO 2030 bo brak jawnych danych</t>
       </text>
     </comment>
     <comment ref="M10" authorId="8" shapeId="0" xr:uid="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     KOBIZE</t>
       </text>
     </comment>
     <comment ref="O10" authorId="9" shapeId="0" xr:uid="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     pgi.gov.pl</t>
       </text>
     </comment>
     <comment ref="E11" authorId="10" shapeId="0" xr:uid="{D6AC3D91-27B7-4254-A5A4-1E26D77A7AC0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     magazynbiomasa
-Reply:
+Odpowiedź:
     Cena giełda baltpool, kurs 2023</t>
       </text>
     </comment>
     <comment ref="F11" authorId="11" shapeId="0" xr:uid="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Magazyn biomasa.pl</t>
       </text>
     </comment>
     <comment ref="L12" authorId="12" shapeId="0" xr:uid="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     https://web.archive.org/web/20081211234615/http://petroleum.berkeley.edu/patzek/ce24/Spring2003/heatvalues.htm
 </t>
       </text>
     </comment>
     <comment ref="L14" authorId="13" shapeId="0" xr:uid="{A09F502C-CDC4-4B6C-92E2-2CD872E5E3BD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     https://isap.sejm.gov.pl/isap.nsf/download.xsp/WDU20200001278/O/D20201278.pdf</t>
       </text>
     </comment>
     <comment ref="M14" authorId="14" shapeId="0" xr:uid="{5A97C997-A098-495A-A651-BAA2E0DA6FCA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     cena hurt orlen 29.10.25, akcyza podatki.gov.pl, opłata paliwowa biznes.gov</t>
       </text>
     </comment>
     <comment ref="E16" authorId="15" shapeId="0" xr:uid="{516392F4-0C77-4D0D-9B33-019C52D407A7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Cena z ENTSO z TYNP, przyjęta jak dla 2030</t>
       </text>
     </comment>
     <comment ref="H16" authorId="16" shapeId="0" xr:uid="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Nie ograniczaliśmy w modelu dla Shella… brak danych zupełnie na ten temat...</t>
       </text>
     </comment>
     <comment ref="E17" authorId="17" shapeId="0" xr:uid="{C198AD2D-41D3-4002-A121-F3EEF76D416B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Import, źr po prawej</t>
       </text>
     </comment>
@@ -5986,14 +5986,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="189" fontId="2" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2522">
@@ -7272,7 +7272,6 @@
     <cellStyle name="Neutralne 9 3" xfId="1335" xr:uid="{9A2911CC-77F9-427E-AF76-7ACDA19AAD34}"/>
     <cellStyle name="Neutralne 9_COM_BND" xfId="1336" xr:uid="{40F3AEDA-481E-4F62-8F5F-8592128FE901}"/>
     <cellStyle name="no dec" xfId="1337" xr:uid="{AA18D127-489D-45ED-B3E3-9B7D25E2E76B}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="1338" xr:uid="{579CAC6F-5CDD-4B7A-8122-9997D30863D9}"/>
     <cellStyle name="Normal - Style1 2 2 3" xfId="2516" xr:uid="{E122DE18-B807-496E-BD44-BBB63A047204}"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
@@ -7353,6 +7352,7 @@
     <cellStyle name="Normal GHG-Shade 2" xfId="1408" xr:uid="{DC2D7900-93CD-4661-8FC9-7D47BE5655E0}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normale_B2020" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="1409" xr:uid="{BD98270D-00D2-46E2-97B7-D89A9FD2BE17}"/>
     <cellStyle name="Normalny 10 10" xfId="1410" xr:uid="{5E5F0907-E0B2-482F-B68D-BA01781F945C}"/>
     <cellStyle name="Normalny 10 10 2" xfId="2521" xr:uid="{173CD0C3-EA74-4B75-9DA9-82D9B8CDBC70}"/>
@@ -8987,21 +8987,21 @@
       <selection activeCell="B8" sqref="B8:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.5">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="13">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="38.25">
+    <row r="6" spans="2:9" ht="37.5">
       <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="51.75" thickBot="1">
+    <row r="7" spans="2:9" ht="50.5" thickBot="1">
       <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
@@ -9298,11 +9298,11 @@
     <row r="24" spans="2:9">
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B25" s="99" t="s">
+    <row r="25" spans="2:9" ht="13" thickBot="1">
+      <c r="B25" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="99"/>
+      <c r="C25" s="100"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="20" t="s">
@@ -9336,7 +9336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="13.5" thickBot="1">
+    <row r="30" spans="2:9" ht="13" thickBot="1">
       <c r="B30" s="23" t="s">
         <v>54</v>
       </c>
@@ -9364,18 +9364,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -9458,7 +9458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="64.5" thickBot="1">
+    <row r="7" spans="1:10" ht="63" thickBot="1">
       <c r="B7" s="27" t="s">
         <v>75</v>
       </c>
@@ -9676,7 +9676,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="2:14" ht="13.5" thickBot="1">
+    <row r="17" spans="2:14" ht="13" thickBot="1">
       <c r="B17" s="88" t="s">
         <v>98</v>
       </c>
@@ -9698,11 +9698,11 @@
       <c r="J17" s="83"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="22" t="s">
@@ -9879,7 +9879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="13.5" thickBot="1">
+    <row r="29" spans="2:14" ht="13" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>129</v>
       </c>
@@ -9904,23 +9904,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="9" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="9" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="24.7265625" customWidth="1"/>
+    <col min="13" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -9948,7 +9948,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="18">
+    <row r="2" spans="1:24" ht="17.5">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>131</v>
@@ -10045,7 +10045,7 @@
       <c r="F5" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="101"/>
+      <c r="G5" s="99"/>
       <c r="I5" s="25" t="s">
         <v>137</v>
       </c>
@@ -10079,11 +10079,10 @@
       <c r="E6" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>141</v>
-      </c>
       <c r="I6" s="26" t="s">
         <v>142</v>
       </c>
@@ -10117,11 +10116,10 @@
       <c r="E7" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="I7" s="27" t="s">
         <v>147</v>
       </c>
@@ -10172,12 +10170,11 @@
         <f>R8*1000</f>
         <v>38.361266294227185</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94">
+      <c r="F8" s="94">
         <f>(L8*1000*N8)*10^-9</f>
         <v>945.01537092000001</v>
       </c>
+      <c r="G8" s="94"/>
       <c r="I8" s="57"/>
       <c r="K8" s="68" t="s">
         <v>155</v>
@@ -10219,12 +10216,11 @@
         <f>R9*1000</f>
         <v>6.1425970873786397</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95">
+      <c r="F9" s="95">
         <f>(L9*1000*N9)*10^-9</f>
         <v>358.11040000000003</v>
       </c>
+      <c r="G9" s="95"/>
       <c r="I9" s="61"/>
       <c r="K9" s="68" t="s">
         <v>156</v>
@@ -10267,12 +10263,11 @@
         <f>28.7719437401575</f>
         <v>28.7719437401575</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96">
+      <c r="F10" s="96">
         <f>(M10*O10)*10^-9</f>
         <v>165.25120000000001</v>
       </c>
+      <c r="G10" s="96"/>
       <c r="I10" s="59"/>
       <c r="K10" s="68" t="s">
         <v>157</v>
@@ -10289,7 +10284,7 @@
       <c r="P10" s="64"/>
       <c r="R10" s="64"/>
     </row>
-    <row r="11" spans="1:24" ht="27.6" customHeight="1">
+    <row r="11" spans="1:24" ht="27.65" customHeight="1">
       <c r="B11" s="60" t="str">
         <f>SEC_Processes!D11</f>
         <v>MIN_BIOM</v>
@@ -10370,7 +10365,7 @@
       <c r="H13" s="95"/>
       <c r="I13" s="61"/>
     </row>
-    <row r="14" spans="1:24" ht="11.45" customHeight="1">
+    <row r="14" spans="1:24" ht="11.5" customHeight="1">
       <c r="B14" s="58" t="str">
         <f>SEC_Processes!D14</f>
         <v>MIN_SOLAR</v>
@@ -10467,7 +10462,7 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" thickBot="1">
+    <row r="17" spans="2:16" ht="13" thickBot="1">
       <c r="B17" s="92" t="str">
         <f>SEC_Processes!D17</f>
         <v>IMP_DSL</v>
@@ -10525,26 +10520,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -10787,13 +10762,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF101330-C968-40B5-8BD0-7CAA7445188C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10807,5 +10810,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF101330-C968-40B5-8BD0-7CAA7445188C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ModelPL_SUPPLY.xlsx
+++ b/VT_ModelPL_SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7E1EF-139D-47E9-B789-6A725D403F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05522711-159B-4F13-B964-1F39FF707D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="261" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9905,7 +9905,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -10263,11 +10263,11 @@
         <f>28.7719437401575</f>
         <v>28.7719437401575</v>
       </c>
-      <c r="F10" s="96">
+      <c r="G10" s="96"/>
+      <c r="H10" s="96">
         <f>(M10*O10)*10^-9</f>
         <v>165.25120000000001</v>
       </c>
-      <c r="G10" s="96"/>
       <c r="I10" s="59"/>
       <c r="K10" s="68" t="s">
         <v>157</v>
